--- a/bots/crawl_ch/output/bread_coop_2022-05-19.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2022-05-19.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -893,7 +893,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -1883,7 +1883,7 @@
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -2339,7 +2339,7 @@
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -2565,7 +2565,7 @@
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -2795,7 +2795,7 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -2869,7 +2869,7 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -3095,7 +3095,7 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -3559,7 +3559,7 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -3941,7 +3941,7 @@
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -4019,7 +4019,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -4175,7 +4175,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -4249,7 +4249,7 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -4323,7 +4323,7 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4471,7 @@
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -4549,7 +4549,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -4779,7 +4779,7 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -4931,7 +4931,7 @@
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -5083,7 +5083,7 @@
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -5239,7 +5239,7 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -5317,7 +5317,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -5469,7 +5469,7 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -5547,7 +5547,7 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -5699,7 +5699,7 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -5777,7 +5777,7 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -5855,7 +5855,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -5929,7 +5929,7 @@
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -6003,7 +6003,7 @@
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -6159,7 +6159,7 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -6237,7 +6237,7 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -6315,7 +6315,7 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -6389,7 +6389,7 @@
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -6465,7 +6465,7 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -6543,7 +6543,7 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -6621,7 +6621,7 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -6695,7 +6695,7 @@
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -6769,7 +6769,7 @@
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -6995,7 +6995,7 @@
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -7069,7 +7069,7 @@
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -7143,7 +7143,7 @@
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -7217,50 +7217,50 @@
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>6090654</t>
+          <t>3942004</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Roland Pancroc Vollkorn</t>
+          <t>Naturaplan Bio Reiswaffeln Milchschokolade Mini</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-pancroc-vollkorn/p/6090654</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-milchschokolade-mini/p/3942004</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>125g</t>
+          <t>60g</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F90" t="n">
         <v>5</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>1.68/100g</t>
+          <t>3.25/100g</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -7270,7 +7270,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -7280,61 +7280,65 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>Roland Pancroc Vollkorn 2.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr"/>
+          <t>Naturaplan Bio Reiswaffeln Milchschokolade Mini 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>3942004</t>
+          <t>6090654</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Milchschokolade Mini</t>
+          <t>Roland Pancroc Vollkorn</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-milchschokolade-mini/p/3942004</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-pancroc-vollkorn/p/6090654</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>60g</t>
+          <t>125g</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F91" t="n">
         <v>5</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>3.25/100g</t>
+          <t>1.68/100g</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -7344,7 +7348,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -7354,22 +7358,18 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Milchschokolade Mini 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Roland Pancroc Vollkorn 2.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -7447,7 +7447,7 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -7599,7 +7599,7 @@
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -7677,7 +7677,7 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -7755,7 +7755,7 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -7833,7 +7833,7 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -7911,7 +7911,7 @@
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -7989,7 +7989,7 @@
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -8067,7 +8067,7 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -8141,7 +8141,7 @@
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -8219,7 +8219,7 @@
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -8297,7 +8297,7 @@
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -8375,7 +8375,7 @@
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -8449,7 +8449,7 @@
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -8525,7 +8525,7 @@
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -8599,7 +8599,7 @@
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -8673,7 +8673,7 @@
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -8751,7 +8751,7 @@
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -8829,7 +8829,7 @@
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -8903,7 +8903,7 @@
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -8973,7 +8973,7 @@
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -9051,7 +9051,7 @@
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -9207,7 +9207,7 @@
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -9281,7 +9281,7 @@
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -9359,7 +9359,7 @@
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -9433,7 +9433,7 @@
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -9511,7 +9511,7 @@
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -9663,7 +9663,7 @@
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -9737,7 +9737,7 @@
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -9811,50 +9811,50 @@
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>5863895</t>
+          <t>6104289</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln mit Honig 3x32g</t>
+          <t>Pasquier Milchbrötchen Schoko 8 Stück</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-mit-honig-3x32g/p/5863895</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-milchbroetchen-schoko-8-stueck/p/6104289</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>96g</t>
+          <t>280g</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F124" t="n">
         <v>5</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>2.03/100g</t>
+          <t>1.05/100g</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -9864,7 +9864,7 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
@@ -9874,61 +9874,61 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln mit Honig 3x32g - Online kein Bestand 1.95 Schweizer Franken</t>
+          <t>Pasquier Milchbrötchen Schoko 8 Stück 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>6104289</t>
+          <t>3041596</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Pasquier Milchbrötchen Schoko 8 Stück</t>
+          <t>Naturaplan Bio Ballast Knäckebrot</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-milchbroetchen-schoko-8-stueck/p/6104289</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/naturaplan-bio-ballast-knaeckebrot/p/3041596</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>280g</t>
+          <t>200g</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F125" t="n">
         <v>5</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>1.05/100g</t>
+          <t>1.18/100g</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -9938,7 +9938,7 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
@@ -9948,44 +9948,48 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>Pasquier Milchbrötchen Schoko 8 Stück 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O125" t="inlineStr"/>
+          <t>Naturaplan Bio Ballast Knäckebrot 2.35 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="P125" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>3041596</t>
+          <t>5863895</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Ballast Knäckebrot</t>
+          <t>Naturaplan Bio Reiswaffeln mit Honig 3x32g</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/naturaplan-bio-ballast-knaeckebrot/p/3041596</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-mit-honig-3x32g/p/5863895</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>200g</t>
+          <t>96g</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F126" t="n">
         <v>5</v>
@@ -9997,12 +10001,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>1.18/100g</t>
+          <t>2.03/100g</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -10012,7 +10016,7 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
@@ -10022,22 +10026,18 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Ballast Knäckebrot 2.35 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O126" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Reiswaffeln mit Honig 3x32g 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr"/>
       <c r="P126" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -10111,7 +10111,7 @@
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -10189,7 +10189,7 @@
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -10263,7 +10263,7 @@
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -10337,7 +10337,7 @@
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -10415,7 +10415,7 @@
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -10489,7 +10489,7 @@
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -10567,7 +10567,7 @@
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -10645,7 +10645,7 @@
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -10719,7 +10719,7 @@
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -10793,7 +10793,7 @@
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -10867,7 +10867,7 @@
       <c r="O137" t="inlineStr"/>
       <c r="P137" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -10945,7 +10945,7 @@
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -11019,7 +11019,7 @@
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -11097,7 +11097,7 @@
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -11175,7 +11175,7 @@
       </c>
       <c r="P141" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -11249,7 +11249,7 @@
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -11323,7 +11323,7 @@
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="P144" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -11475,7 +11475,7 @@
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -11553,7 +11553,7 @@
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -11627,7 +11627,7 @@
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -11699,7 +11699,7 @@
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -11777,7 +11777,7 @@
       </c>
       <c r="P149" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -11855,7 +11855,7 @@
       </c>
       <c r="P150" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -11933,7 +11933,7 @@
       </c>
       <c r="P151" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -12011,7 +12011,7 @@
       </c>
       <c r="P152" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -12089,7 +12089,7 @@
       </c>
       <c r="P153" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -12163,7 +12163,7 @@
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -12237,7 +12237,7 @@
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -12315,7 +12315,7 @@
       </c>
       <c r="P156" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -12389,7 +12389,7 @@
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -12467,7 +12467,7 @@
       </c>
       <c r="P158" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -12545,7 +12545,7 @@
       </c>
       <c r="P159" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -12619,7 +12619,7 @@
       <c r="O160" t="inlineStr"/>
       <c r="P160" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -12697,7 +12697,7 @@
       </c>
       <c r="P161" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -12771,7 +12771,7 @@
       <c r="O162" t="inlineStr"/>
       <c r="P162" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -12845,7 +12845,7 @@
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -12919,7 +12919,7 @@
       <c r="O164" t="inlineStr"/>
       <c r="P164" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -12993,7 +12993,7 @@
       <c r="O165" t="inlineStr"/>
       <c r="P165" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -13071,7 +13071,7 @@
       </c>
       <c r="P166" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -13145,7 +13145,7 @@
       <c r="O167" t="inlineStr"/>
       <c r="P167" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -13223,7 +13223,7 @@
       </c>
       <c r="P168" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -13301,7 +13301,7 @@
       </c>
       <c r="P169" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -13379,7 +13379,7 @@
       </c>
       <c r="P170" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -13453,7 +13453,7 @@
       <c r="O171" t="inlineStr"/>
       <c r="P171" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -13527,7 +13527,7 @@
       <c r="O172" t="inlineStr"/>
       <c r="P172" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -13605,7 +13605,7 @@
       </c>
       <c r="P173" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -13679,7 +13679,7 @@
       <c r="O174" t="inlineStr"/>
       <c r="P174" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -13757,7 +13757,7 @@
       </c>
       <c r="P175" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -13831,50 +13831,50 @@
       <c r="O176" t="inlineStr"/>
       <c r="P176" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>6383814</t>
+          <t>6358647</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Bauli Croissant Cream 6 Stück</t>
+          <t>Roland Naturaplan Bio Dinkelzwieback</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-cream-6-stueck/p/6383814</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/roland-naturaplan-bio-dinkelzwieback/p/6358647</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>300g</t>
+          <t>165g</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F177" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Bauli</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>2.55/100g</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -13884,7 +13884,7 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
@@ -13894,61 +13894,61 @@
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>Bauli Croissant Cream 6 Stück 2.95 Schweizer Franken</t>
+          <t>Roland Naturaplan Bio Dinkelzwieback 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O177" t="inlineStr"/>
       <c r="P177" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>6358647</t>
+          <t>6383814</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Roland Naturaplan Bio Dinkelzwieback</t>
+          <t>Bauli Croissant Cream 6 Stück</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/roland-naturaplan-bio-dinkelzwieback/p/6358647</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-cream-6-stueck/p/6383814</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>165g</t>
+          <t>300g</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F178" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Bauli</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>2.55/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -13958,7 +13958,7 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
@@ -13968,18 +13968,18 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>Roland Naturaplan Bio Dinkelzwieback 4.20 Schweizer Franken</t>
+          <t>Bauli Croissant Cream 6 Stück 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O178" t="inlineStr"/>
       <c r="P178" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -14057,7 +14057,7 @@
       </c>
       <c r="P179" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -14133,7 +14133,7 @@
       </c>
       <c r="P180" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -14209,7 +14209,7 @@
       </c>
       <c r="P181" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -14287,7 +14287,7 @@
       </c>
       <c r="P182" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -14361,7 +14361,7 @@
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -14435,7 +14435,7 @@
       <c r="O184" t="inlineStr"/>
       <c r="P184" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -14509,7 +14509,7 @@
       <c r="O185" t="inlineStr"/>
       <c r="P185" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -14583,7 +14583,7 @@
       <c r="O186" t="inlineStr"/>
       <c r="P186" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -14657,7 +14657,7 @@
       <c r="O187" t="inlineStr"/>
       <c r="P187" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -14731,7 +14731,7 @@
       </c>
       <c r="P188" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -14805,7 +14805,7 @@
       <c r="O189" t="inlineStr"/>
       <c r="P189" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -14879,7 +14879,7 @@
       <c r="O190" t="inlineStr"/>
       <c r="P190" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -14957,7 +14957,7 @@
       </c>
       <c r="P191" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -15031,7 +15031,7 @@
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -15105,7 +15105,7 @@
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -15179,7 +15179,7 @@
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -15253,7 +15253,7 @@
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -15331,7 +15331,7 @@
       </c>
       <c r="P196" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -15405,7 +15405,7 @@
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -15483,7 +15483,7 @@
       </c>
       <c r="P198" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -15557,7 +15557,7 @@
       <c r="O199" t="inlineStr"/>
       <c r="P199" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -15635,7 +15635,7 @@
       </c>
       <c r="P200" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -15713,7 +15713,7 @@
       </c>
       <c r="P201" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -15787,7 +15787,7 @@
       <c r="O202" t="inlineStr"/>
       <c r="P202" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -15865,7 +15865,7 @@
       </c>
       <c r="P203" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -15939,7 +15939,7 @@
       <c r="O204" t="inlineStr"/>
       <c r="P204" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -16013,7 +16013,7 @@
       <c r="O205" t="inlineStr"/>
       <c r="P205" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -16087,7 +16087,7 @@
       <c r="O206" t="inlineStr"/>
       <c r="P206" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -16165,7 +16165,7 @@
       </c>
       <c r="P207" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -16243,7 +16243,7 @@
       </c>
       <c r="P208" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -16317,7 +16317,7 @@
       <c r="O209" t="inlineStr"/>
       <c r="P209" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -16391,7 +16391,7 @@
       <c r="O210" t="inlineStr"/>
       <c r="P210" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -16465,7 +16465,7 @@
       <c r="O211" t="inlineStr"/>
       <c r="P211" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -16539,7 +16539,7 @@
       <c r="O212" t="inlineStr"/>
       <c r="P212" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -16617,7 +16617,7 @@
       </c>
       <c r="P213" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -16695,7 +16695,7 @@
       </c>
       <c r="P214" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -16769,7 +16769,7 @@
       <c r="O215" t="inlineStr"/>
       <c r="P215" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -16843,7 +16843,7 @@
       <c r="O216" t="inlineStr"/>
       <c r="P216" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -16917,7 +16917,7 @@
       <c r="O217" t="inlineStr"/>
       <c r="P217" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -16995,7 +16995,7 @@
       </c>
       <c r="P218" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -17073,7 +17073,7 @@
       </c>
       <c r="P219" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -17151,7 +17151,7 @@
       </c>
       <c r="P220" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -17225,7 +17225,7 @@
       <c r="O221" t="inlineStr"/>
       <c r="P221" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -17301,7 +17301,7 @@
       </c>
       <c r="P222" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -17379,7 +17379,7 @@
       </c>
       <c r="P223" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -17445,13 +17445,13 @@
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>Prix Garantie Frischback Mehrkorn Brötchen 6 Stück 1.50 Schweizer Franken</t>
+          <t>Prix Garantie Frischback Mehrkorn Brötchen 6 Stück - Online kein Bestand 1.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O224" t="inlineStr"/>
       <c r="P224" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -17527,7 +17527,7 @@
       </c>
       <c r="P225" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -17605,7 +17605,7 @@
       </c>
       <c r="P226" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -17679,7 +17679,7 @@
       <c r="O227" t="inlineStr"/>
       <c r="P227" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -17757,7 +17757,7 @@
       </c>
       <c r="P228" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -17833,7 +17833,7 @@
       </c>
       <c r="P229" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -17907,7 +17907,7 @@
       <c r="O230" t="inlineStr"/>
       <c r="P230" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -17981,7 +17981,7 @@
       <c r="O231" t="inlineStr"/>
       <c r="P231" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -18055,7 +18055,7 @@
       <c r="O232" t="inlineStr"/>
       <c r="P232" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -18133,7 +18133,7 @@
       </c>
       <c r="P233" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -18207,7 +18207,7 @@
       <c r="O234" t="inlineStr"/>
       <c r="P234" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -18281,7 +18281,7 @@
       <c r="O235" t="inlineStr"/>
       <c r="P235" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -18355,7 +18355,7 @@
       <c r="O236" t="inlineStr"/>
       <c r="P236" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -18429,7 +18429,7 @@
       <c r="O237" t="inlineStr"/>
       <c r="P237" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -18503,7 +18503,7 @@
       <c r="O238" t="inlineStr"/>
       <c r="P238" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -18581,7 +18581,7 @@
       </c>
       <c r="P239" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -18659,7 +18659,7 @@
       </c>
       <c r="P240" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -18737,7 +18737,7 @@
       </c>
       <c r="P241" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -18811,7 +18811,7 @@
       <c r="O242" t="inlineStr"/>
       <c r="P242" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -18889,7 +18889,7 @@
       </c>
       <c r="P243" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -18961,7 +18961,7 @@
       <c r="O244" t="inlineStr"/>
       <c r="P244" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -19033,7 +19033,7 @@
       <c r="O245" t="inlineStr"/>
       <c r="P245" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -19111,7 +19111,7 @@
       </c>
       <c r="P246" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -19185,7 +19185,7 @@
       <c r="O247" t="inlineStr"/>
       <c r="P247" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -19263,7 +19263,7 @@
       </c>
       <c r="P248" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -19337,7 +19337,7 @@
       <c r="O249" t="inlineStr"/>
       <c r="P249" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -19415,7 +19415,7 @@
       </c>
       <c r="P250" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -19493,7 +19493,7 @@
       </c>
       <c r="P251" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -19567,7 +19567,7 @@
       <c r="O252" t="inlineStr"/>
       <c r="P252" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -19645,7 +19645,7 @@
       </c>
       <c r="P253" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -19723,7 +19723,7 @@
       </c>
       <c r="P254" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -19801,7 +19801,7 @@
       </c>
       <c r="P255" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -19875,7 +19875,7 @@
       <c r="O256" t="inlineStr"/>
       <c r="P256" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -19949,7 +19949,7 @@
       <c r="O257" t="inlineStr"/>
       <c r="P257" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -20023,7 +20023,7 @@
       <c r="O258" t="inlineStr"/>
       <c r="P258" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -20101,7 +20101,7 @@
       </c>
       <c r="P259" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -20175,7 +20175,7 @@
       <c r="O260" t="inlineStr"/>
       <c r="P260" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -20253,7 +20253,7 @@
       </c>
       <c r="P261" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -20325,7 +20325,7 @@
       <c r="O262" t="inlineStr"/>
       <c r="P262" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -20399,7 +20399,7 @@
       <c r="O263" t="inlineStr"/>
       <c r="P263" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -20473,7 +20473,7 @@
       <c r="O264" t="inlineStr"/>
       <c r="P264" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -20547,7 +20547,7 @@
       <c r="O265" t="inlineStr"/>
       <c r="P265" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -20621,7 +20621,7 @@
       <c r="O266" t="inlineStr"/>
       <c r="P266" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -20699,7 +20699,7 @@
       </c>
       <c r="P267" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -20773,7 +20773,7 @@
       <c r="O268" t="inlineStr"/>
       <c r="P268" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -20847,7 +20847,7 @@
       <c r="O269" t="inlineStr"/>
       <c r="P269" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -20921,7 +20921,7 @@
       <c r="O270" t="inlineStr"/>
       <c r="P270" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -20999,7 +20999,7 @@
       </c>
       <c r="P271" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -21077,155 +21077,155 @@
       </c>
       <c r="P272" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>6313852</t>
+          <t>4314837</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Guezli Fruits</t>
+          <t>Kale Dürüm 30cm 18 Stück</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-guezli-fruits/p/6313852</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/kale-dueruem-30cm-18-stueck/p/4314837</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>105g</t>
+          <t>1.71kg</t>
         </is>
       </c>
       <c r="E273" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="F273" t="n">
         <v>4.5</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Kale</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>2.52/100g</t>
+          <t>2.69/1kg</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Guezli Fruits 2.65 Schweizer Franken</t>
+          <t>Kale Dürüm 30cm 18 Stück 33% Aktion 4.60 Schweizer Franken statt 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O273" t="inlineStr"/>
       <c r="P273" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>4314837</t>
+          <t>6313852</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Kale Dürüm 30cm 18 Stück</t>
+          <t>Roland Petite Pause Guezli Fruits</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/kale-dueruem-30cm-18-stueck/p/4314837</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-guezli-fruits/p/6313852</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>1.71kg</t>
+          <t>105g</t>
         </is>
       </c>
       <c r="E274" t="n">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="F274" t="n">
         <v>4.5</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>Kale</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>2.69/1kg</t>
+          <t>2.52/100g</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
         </is>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>Kale Dürüm 30cm 18 Stück 33% Aktion 4.60 Schweizer Franken statt 6.95 Schweizer Franken</t>
+          <t>Roland Petite Pause Guezli Fruits 2.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="O274" t="inlineStr"/>
       <c r="P274" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -21303,50 +21303,50 @@
       </c>
       <c r="P275" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>4849123</t>
+          <t>5909371</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Schär Crackers Pocket glutenfrei 3x50g</t>
+          <t>Roland Cracker Käse</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/schaer-crackers-pocket-glutenfrei-3x50g/p/4849123</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/roland-cracker-kaese/p/5909371</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>150g</t>
+          <t>130g</t>
         </is>
       </c>
       <c r="E276" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F276" t="n">
         <v>4.5</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>2.47/100g</t>
+          <t>3.04/100g</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -21356,7 +21356,7 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
@@ -21366,65 +21366,61 @@
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>Schär Crackers Pocket glutenfrei 3x50g 3.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O276" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Roland Cracker Käse 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O276" t="inlineStr"/>
       <c r="P276" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>5909371</t>
+          <t>4849123</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Roland Cracker Käse</t>
+          <t>Schär Crackers Pocket glutenfrei 3x50g</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/roland-cracker-kaese/p/5909371</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/schaer-crackers-pocket-glutenfrei-3x50g/p/4849123</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>130g</t>
+          <t>150g</t>
         </is>
       </c>
       <c r="E277" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F277" t="n">
         <v>4.5</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>3.04/100g</t>
+          <t>2.47/100g</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -21434,7 +21430,7 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
@@ -21444,47 +21440,49 @@
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>Roland Cracker Käse 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O277" t="inlineStr"/>
+          <t>Schär Crackers Pocket glutenfrei 3x50g 3.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="P277" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>3951702</t>
+          <t>6695031</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Betty Bossi Blätterteig-Boden 130g</t>
+          <t>Prix Garantie Erdbeer Roulade</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-blaetterteig-boden/p/3951702</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-erdbeer-roulade/p/6695031</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>130g</t>
-        </is>
-      </c>
-      <c r="E278" t="n">
-        <v>18</v>
-      </c>
+          <t>400g</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr"/>
       <c r="F278" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -21493,12 +21491,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>0.58/100g</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -21508,7 +21506,7 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
@@ -21518,51 +21516,47 @@
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>Betty Bossi Blätterteig-Boden 130g 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O278" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Erdbeer Roulade 2.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O278" t="inlineStr"/>
       <c r="P278" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>6628849</t>
+          <t>3951702</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Betty Bossi Grossmutters Schoggi Cake</t>
+          <t>Betty Bossi Blätterteig-Boden 130g</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-grossmutters-schoggi-cake/p/6628849</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-blaetterteig-boden/p/3951702</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>120g</t>
+          <t>130g</t>
         </is>
       </c>
       <c r="E279" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F279" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -21571,12 +21565,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>1.63/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -21586,7 +21580,7 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
@@ -21596,45 +21590,51 @@
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>Betty Bossi Grossmutters Schoggi Cake 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O279" t="inlineStr"/>
+          <t>Betty Bossi Blätterteig-Boden 130g 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="P279" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>6695031</t>
+          <t>6628849</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Prix Garantie Erdbeer Roulade</t>
+          <t>Betty Bossi Grossmutters Schoggi Cake</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-erdbeer-roulade/p/6695031</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-grossmutters-schoggi-cake/p/6628849</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>400g</t>
-        </is>
-      </c>
-      <c r="E280" t="inlineStr"/>
+          <t>120g</t>
+        </is>
+      </c>
+      <c r="E280" t="n">
+        <v>1</v>
+      </c>
       <c r="F280" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -21643,12 +21643,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>0.58/100g</t>
+          <t>1.63/100g</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -21658,7 +21658,7 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
@@ -21673,13 +21673,13 @@
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>Prix Garantie Erdbeer Roulade 2.30 Schweizer Franken</t>
+          <t>Betty Bossi Grossmutters Schoggi Cake 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O280" t="inlineStr"/>
       <c r="P280" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -21753,48 +21753,50 @@
       <c r="O281" t="inlineStr"/>
       <c r="P281" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>6786544</t>
+          <t>6877241</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Mulino Bianco Nascondini</t>
+          <t>Mais Tortillas</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/mulino-bianco-nascondini/p/6786544</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mais-tortillas/p/6877241</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>330g</t>
-        </is>
-      </c>
-      <c r="E282" t="inlineStr"/>
+          <t>250g</t>
+        </is>
+      </c>
+      <c r="E282" t="n">
+        <v>8</v>
+      </c>
       <c r="F282" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>Mulino Bianco</t>
+          <t>MASAMOR</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>1.06/100g</t>
+          <t>2.38/100g</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -21804,7 +21806,7 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
@@ -21814,61 +21816,59 @@
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>Mulino Bianco Nascondini 20% ab 2 Aktion 3.50 Schweizer Franken</t>
+          <t>Mais Tortillas 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O282" t="inlineStr"/>
       <c r="P282" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>6877241</t>
+          <t>6786544</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Mais Tortillas</t>
+          <t>Mulino Bianco Nascondini</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mais-tortillas/p/6877241</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/mulino-bianco-nascondini/p/6786544</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>250g</t>
-        </is>
-      </c>
-      <c r="E283" t="n">
-        <v>8</v>
-      </c>
+          <t>330g</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr"/>
       <c r="F283" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>MASAMOR</t>
+          <t>Mulino Bianco</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>2.38/100g</t>
+          <t>1.06/100g</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -21878,7 +21878,7 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
@@ -21888,18 +21888,18 @@
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>Mais Tortillas 5.95 Schweizer Franken</t>
+          <t>Mulino Bianco Nascondini 20% ab 2 Aktion 3.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O283" t="inlineStr"/>
       <c r="P283" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -21977,7 +21977,7 @@
       </c>
       <c r="P284" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -22055,7 +22055,7 @@
       </c>
       <c r="P285" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -22129,7 +22129,7 @@
       <c r="O286" t="inlineStr"/>
       <c r="P286" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -22207,7 +22207,7 @@
       </c>
       <c r="P287" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -22285,7 +22285,7 @@
       </c>
       <c r="P288" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -22359,7 +22359,7 @@
       <c r="O289" t="inlineStr"/>
       <c r="P289" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -22437,7 +22437,7 @@
       </c>
       <c r="P290" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -22515,7 +22515,7 @@
       </c>
       <c r="P291" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -22587,7 +22587,7 @@
       <c r="O292" t="inlineStr"/>
       <c r="P292" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -22665,7 +22665,7 @@
       </c>
       <c r="P293" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -22739,50 +22739,50 @@
       <c r="O294" t="inlineStr"/>
       <c r="P294" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>6345662</t>
+          <t>3587166</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Indian Delight Mini Naans bread nature</t>
+          <t>Cocktail Blinis 16 Stück</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/indian-delight-mini-naans-bread-nature/p/6345662</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/cocktail-blinis-16-stueck/p/3587166</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>260g</t>
+          <t>135g</t>
         </is>
       </c>
       <c r="E295" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F295" t="n">
         <v>5</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>INDIAN DELIGHT</t>
+          <t>Blini</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>1.85/100g</t>
+          <t>3.67/100g</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
@@ -22807,60 +22807,60 @@
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>Indian Delight Mini Naans bread nature 4.80 Schweizer Franken</t>
+          <t>Cocktail Blinis 16 Stück 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="P295" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>3587166</t>
+          <t>6345662</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Cocktail Blinis 16 Stück</t>
+          <t>Indian Delight Mini Naans bread nature</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/cocktail-blinis-16-stueck/p/3587166</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/indian-delight-mini-naans-bread-nature/p/6345662</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>135g</t>
+          <t>260g</t>
         </is>
       </c>
       <c r="E296" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F296" t="n">
         <v>5</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>Blini</t>
+          <t>INDIAN DELIGHT</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>3.67/100g</t>
+          <t>1.85/100g</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -22870,7 +22870,7 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
@@ -22885,17 +22885,17 @@
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>Cocktail Blinis 16 Stück 4.95 Schweizer Franken</t>
+          <t>Indian Delight Mini Naans bread nature 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="P296" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -22969,7 +22969,7 @@
       <c r="O297" t="inlineStr"/>
       <c r="P297" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -23043,7 +23043,7 @@
       <c r="O298" t="inlineStr"/>
       <c r="P298" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -23121,7 +23121,7 @@
       </c>
       <c r="P299" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -23199,7 +23199,7 @@
       </c>
       <c r="P300" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -23271,7 +23271,7 @@
       <c r="O301" t="inlineStr"/>
       <c r="P301" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -23345,29 +23345,29 @@
       <c r="O302" t="inlineStr"/>
       <c r="P302" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>6703375</t>
+          <t>6345667</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Prix Garantie Cinnamon Rolls</t>
+          <t>Indian Delight Plain Naan Bread</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-cinnamon-rolls/p/6703375</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-plain-naan-bread/p/6345667</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>220g</t>
+          <t>260g</t>
         </is>
       </c>
       <c r="E303" t="n">
@@ -23378,17 +23378,17 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>INDIAN DELIGHT</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>1.23/100g</t>
+          <t>1.77/100g</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -23398,7 +23398,7 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
@@ -23408,18 +23408,22 @@
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>Prix Garantie Cinnamon Rolls 2.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O303" t="inlineStr"/>
+          <t>Indian Delight Plain Naan Bread 4.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O303" t="inlineStr">
+        <is>
+          <t>['vegan']</t>
+        </is>
+      </c>
       <c r="P303" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -23497,7 +23501,7 @@
       </c>
       <c r="P304" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -23571,7 +23575,7 @@
       <c r="O305" t="inlineStr"/>
       <c r="P305" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -23645,50 +23649,50 @@
       <c r="O306" t="inlineStr"/>
       <c r="P306" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>6345667</t>
+          <t>6775681</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Indian Delight Plain Naan Bread</t>
+          <t>MEZEAST Pita Bread</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-plain-naan-bread/p/6345667</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-pita-bread/p/6775681</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>260g</t>
+          <t>480g</t>
         </is>
       </c>
       <c r="E307" t="n">
         <v>6</v>
       </c>
       <c r="F307" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>INDIAN DELIGHT</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>1.77/100g</t>
+          <t>0.94/100g</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -23698,7 +23702,7 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
@@ -23708,65 +23712,65 @@
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>Indian Delight Plain Naan Bread 4.60 Schweizer Franken</t>
+          <t>MEZEAST Pita Bread 20% ab 2 Aktion 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>['vegan']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="P307" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>6775681</t>
+          <t>6703375</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>MEZEAST Pita Bread</t>
+          <t>Prix Garantie Cinnamon Rolls</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-pita-bread/p/6775681</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-cinnamon-rolls/p/6703375</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>480g</t>
+          <t>220g</t>
         </is>
       </c>
       <c r="E308" t="n">
         <v>6</v>
       </c>
       <c r="F308" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>0.94/100g</t>
+          <t>1.23/100g</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -23776,7 +23780,7 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
@@ -23786,22 +23790,18 @@
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>MEZEAST Pita Bread 20% ab 2 Aktion 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O308" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Cinnamon Rolls 2.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O308" t="inlineStr"/>
       <c r="P308" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -23879,7 +23879,7 @@
       </c>
       <c r="P309" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -23953,7 +23953,7 @@
       <c r="O310" t="inlineStr"/>
       <c r="P310" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -24027,7 +24027,7 @@
       <c r="O311" t="inlineStr"/>
       <c r="P311" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -24105,7 +24105,7 @@
       </c>
       <c r="P312" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -24179,7 +24179,7 @@
       <c r="O313" t="inlineStr"/>
       <c r="P313" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -24251,7 +24251,7 @@
       <c r="O314" t="inlineStr"/>
       <c r="P314" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -24325,7 +24325,7 @@
       <c r="O315" t="inlineStr"/>
       <c r="P315" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -24399,7 +24399,7 @@
       <c r="O316" t="inlineStr"/>
       <c r="P316" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -24473,33 +24473,33 @@
       <c r="O317" t="inlineStr"/>
       <c r="P317" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>6630295</t>
+          <t>5653528</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco</t>
+          <t>Betty Bossi Tortenboden hell</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/betty-bossi-tortenboden-hell/p/5653528</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>228g</t>
+          <t>320g</t>
         </is>
       </c>
       <c r="E318" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F318" t="n">
         <v>5</v>
@@ -24511,12 +24511,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>1.00/100g</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -24526,7 +24526,7 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
@@ -24536,44 +24536,48 @@
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O318" t="inlineStr"/>
+          <t>Betty Bossi Tortenboden hell 3.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="P318" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>5653528</t>
+          <t>6630295</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Betty Bossi Tortenboden hell</t>
+          <t>Country Cracker Banane-Choco</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/betty-bossi-tortenboden-hell/p/5653528</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>320g</t>
+          <t>228g</t>
         </is>
       </c>
       <c r="E319" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F319" t="n">
         <v>5</v>
@@ -24585,12 +24589,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>1.00/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -24600,7 +24604,7 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
@@ -24610,22 +24614,18 @@
       </c>
       <c r="M319" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>Betty Bossi Tortenboden hell 3.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O319" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Country Cracker Banane-Choco 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O319" t="inlineStr"/>
       <c r="P319" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -24697,7 +24697,7 @@
       <c r="O320" t="inlineStr"/>
       <c r="P320" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -24771,7 +24771,7 @@
       <c r="O321" t="inlineStr"/>
       <c r="P321" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -24847,7 +24847,7 @@
       </c>
       <c r="P322" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -24921,7 +24921,7 @@
       <c r="O323" t="inlineStr"/>
       <c r="P323" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -24995,7 +24995,7 @@
       <c r="O324" t="inlineStr"/>
       <c r="P324" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -25069,7 +25069,7 @@
       <c r="O325" t="inlineStr"/>
       <c r="P325" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -25143,7 +25143,7 @@
       <c r="O326" t="inlineStr"/>
       <c r="P326" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -25217,7 +25217,7 @@
       <c r="O327" t="inlineStr"/>
       <c r="P327" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -25291,7 +25291,7 @@
       <c r="O328" t="inlineStr"/>
       <c r="P328" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -25365,7 +25365,7 @@
       <c r="O329" t="inlineStr"/>
       <c r="P329" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -25439,7 +25439,7 @@
       <c r="O330" t="inlineStr"/>
       <c r="P330" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -25513,7 +25513,7 @@
       <c r="O331" t="inlineStr"/>
       <c r="P331" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -25587,7 +25587,7 @@
       <c r="O332" t="inlineStr"/>
       <c r="P332" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -25661,7 +25661,7 @@
       <c r="O333" t="inlineStr"/>
       <c r="P333" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -25735,7 +25735,7 @@
       <c r="O334" t="inlineStr"/>
       <c r="P334" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -25809,7 +25809,7 @@
       <c r="O335" t="inlineStr"/>
       <c r="P335" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -25887,7 +25887,7 @@
       </c>
       <c r="P336" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -25961,7 +25961,7 @@
       <c r="O337" t="inlineStr"/>
       <c r="P337" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -26039,7 +26039,7 @@
       </c>
       <c r="P338" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -26117,7 +26117,7 @@
       </c>
       <c r="P339" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -26193,7 +26193,7 @@
       </c>
       <c r="P340" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -26267,7 +26267,7 @@
       <c r="O341" t="inlineStr"/>
       <c r="P341" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -26339,7 +26339,7 @@
       <c r="O342" t="inlineStr"/>
       <c r="P342" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -26417,7 +26417,7 @@
       </c>
       <c r="P343" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -26491,7 +26491,7 @@
       <c r="O344" t="inlineStr"/>
       <c r="P344" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -26563,7 +26563,7 @@
       <c r="O345" t="inlineStr"/>
       <c r="P345" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -26637,7 +26637,7 @@
       <c r="O346" t="inlineStr"/>
       <c r="P346" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -26715,7 +26715,7 @@
       </c>
       <c r="P347" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -26787,7 +26787,7 @@
       <c r="O348" t="inlineStr"/>
       <c r="P348" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -26861,7 +26861,7 @@
       <c r="O349" t="inlineStr"/>
       <c r="P349" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -26939,36 +26939,36 @@
       </c>
       <c r="P350" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>4092628</t>
+          <t>5803251</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Schär Frischback Mini-Baguette 2x75g</t>
+          <t>Schär Pausa Ciok Snack glutenfrei</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-mini-baguette-2x75g/p/4092628</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-pausa-ciok-snack-glutenfrei/p/5803251</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>150g</t>
+          <t>350g</t>
         </is>
       </c>
       <c r="E351" t="n">
         <v>10</v>
       </c>
       <c r="F351" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -26977,12 +26977,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>1.97/100g</t>
+          <t>1.99/100g</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -26992,7 +26992,7 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
@@ -27002,39 +27002,39 @@
       </c>
       <c r="M351" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="N351" t="inlineStr">
         <is>
-          <t>Schär Frischback Mini-Baguette 2x75g 2.95 Schweizer Franken</t>
+          <t>Schär Pausa Ciok Snack glutenfrei 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>['gluten_free', 'lactose_free']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="P351" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>5803251</t>
+          <t>6680943</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Schär Pausa Ciok Snack glutenfrei</t>
+          <t>Pasquier Pancakes Choco 10 Stück</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-pausa-ciok-snack-glutenfrei/p/5803251</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pancakes-choco-10-stueck/p/6680943</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -27043,24 +27043,24 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F352" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>1.99/100g</t>
+          <t>1.21/100g</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -27070,7 +27070,7 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
@@ -27080,65 +27080,61 @@
       </c>
       <c r="M352" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="N352" t="inlineStr">
         <is>
-          <t>Schär Pausa Ciok Snack glutenfrei 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O352" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Pasquier Pancakes Choco 10 Stück 4.25 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O352" t="inlineStr"/>
       <c r="P352" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>6680943</t>
+          <t>4092628</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes Choco 10 Stück</t>
+          <t>Schär Frischback Mini-Baguette 2x75g</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pancakes-choco-10-stueck/p/6680943</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-mini-baguette-2x75g/p/4092628</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>350g</t>
+          <t>150g</t>
         </is>
       </c>
       <c r="E353" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F353" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>1.21/100g</t>
+          <t>1.97/100g</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -27148,7 +27144,7 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
@@ -27158,18 +27154,22 @@
       </c>
       <c r="M353" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes Choco 10 Stück 4.25 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O353" t="inlineStr"/>
+          <t>Schär Frischback Mini-Baguette 2x75g 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O353" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="P353" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -27241,7 +27241,7 @@
       </c>
       <c r="P354" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -27315,7 +27315,7 @@
       <c r="O355" t="inlineStr"/>
       <c r="P355" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -27393,7 +27393,7 @@
       </c>
       <c r="P356" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -27467,7 +27467,7 @@
       <c r="O357" t="inlineStr"/>
       <c r="P357" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -27541,7 +27541,7 @@
       <c r="O358" t="inlineStr"/>
       <c r="P358" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -27615,7 +27615,7 @@
       <c r="O359" t="inlineStr"/>
       <c r="P359" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -27691,7 +27691,7 @@
       </c>
       <c r="P360" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -27765,7 +27765,7 @@
       <c r="O361" t="inlineStr"/>
       <c r="P361" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -27839,7 +27839,7 @@
       <c r="O362" t="inlineStr"/>
       <c r="P362" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -27913,7 +27913,7 @@
       <c r="O363" t="inlineStr"/>
       <c r="P363" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -27987,7 +27987,7 @@
       <c r="O364" t="inlineStr"/>
       <c r="P364" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -28061,7 +28061,7 @@
       <c r="O365" t="inlineStr"/>
       <c r="P365" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -28135,7 +28135,7 @@
       <c r="O366" t="inlineStr"/>
       <c r="P366" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -28213,7 +28213,7 @@
       </c>
       <c r="P367" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -28291,7 +28291,7 @@
       </c>
       <c r="P368" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -28365,7 +28365,7 @@
       <c r="O369" t="inlineStr"/>
       <c r="P369" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -28441,7 +28441,7 @@
       </c>
       <c r="P370" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -28515,7 +28515,7 @@
       <c r="O371" t="inlineStr"/>
       <c r="P371" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -28589,7 +28589,7 @@
       <c r="O372" t="inlineStr"/>
       <c r="P372" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -28663,7 +28663,7 @@
       <c r="O373" t="inlineStr"/>
       <c r="P373" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -28737,7 +28737,7 @@
       <c r="O374" t="inlineStr"/>
       <c r="P374" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -28811,7 +28811,7 @@
       <c r="O375" t="inlineStr"/>
       <c r="P375" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -28887,50 +28887,50 @@
       </c>
       <c r="P376" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>6729401</t>
+          <t>6775928</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Roland Cracker Sport Plus Nature</t>
+          <t>Mezeast Falafel Wrap Kit</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-cracker-sport-plus-nature/p/6729401</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-falafel-wrap-kit/p/6775928</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>150g</t>
+          <t>420g</t>
         </is>
       </c>
       <c r="E377" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F377" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>3.07/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -28940,7 +28940,7 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
@@ -28950,61 +28950,61 @@
       </c>
       <c r="M377" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="N377" t="inlineStr">
         <is>
-          <t>Roland Cracker Sport Plus Nature 4.60 Schweizer Franken</t>
+          <t>Mezeast Falafel Wrap Kit 20% ab 2 Aktion 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O377" t="inlineStr"/>
       <c r="P377" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>6775928</t>
+          <t>6729401</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Mezeast Falafel Wrap Kit</t>
+          <t>Roland Cracker Sport Plus Nature</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-falafel-wrap-kit/p/6775928</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-cracker-sport-plus-nature/p/6729401</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>420g</t>
+          <t>150g</t>
         </is>
       </c>
       <c r="E378" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F378" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>3.07/100g</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -29014,7 +29014,7 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
@@ -29024,18 +29024,18 @@
       </c>
       <c r="M378" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>Mezeast Falafel Wrap Kit 20% ab 2 Aktion 6.95 Schweizer Franken</t>
+          <t>Roland Cracker Sport Plus Nature 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O378" t="inlineStr"/>
       <c r="P378" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -29113,7 +29113,7 @@
       </c>
       <c r="P379" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -29189,7 +29189,7 @@
       </c>
       <c r="P380" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -29261,7 +29261,7 @@
       <c r="O381" t="inlineStr"/>
       <c r="P381" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -29339,7 +29339,7 @@
       </c>
       <c r="P382" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -29411,7 +29411,7 @@
       <c r="O383" t="inlineStr"/>
       <c r="P383" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -29483,7 +29483,7 @@
       <c r="O384" t="inlineStr"/>
       <c r="P384" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -29557,7 +29557,7 @@
       <c r="O385" t="inlineStr"/>
       <c r="P385" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -29629,7 +29629,7 @@
       <c r="O386" t="inlineStr"/>
       <c r="P386" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -29707,7 +29707,7 @@
       </c>
       <c r="P387" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -29783,7 +29783,7 @@
       </c>
       <c r="P388" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -29855,7 +29855,7 @@
       <c r="O389" t="inlineStr"/>
       <c r="P389" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
@@ -29927,7 +29927,7 @@
       <c r="O390" t="inlineStr"/>
       <c r="P390" t="inlineStr">
         <is>
-          <t>2022-05-19 13:55:11</t>
+          <t>2022-05-19 20:49:46</t>
         </is>
       </c>
     </row>
